--- a/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
+++ b/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
@@ -481,19 +481,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D2" t="n">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="E2" t="n">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="F2" t="n">
-        <v>160</v>
+        <v>252</v>
       </c>
       <c r="G2" t="n">
-        <v>202</v>
+        <v>298</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D3" t="n">
-        <v>142</v>
+        <v>185</v>
       </c>
       <c r="E3" t="n">
-        <v>172</v>
+        <v>221</v>
       </c>
       <c r="F3" t="n">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="G3" t="n">
-        <v>267</v>
+        <v>314</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -551,19 +551,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D4" t="n">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="E4" t="n">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="F4" t="n">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="G4" t="n">
-        <v>187</v>
+        <v>249</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -586,19 +586,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D5" t="n">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="E5" t="n">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="F5" t="n">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="G5" t="n">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D6" t="n">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="E6" t="n">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="F6" t="n">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="G6" t="n">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D7" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="E7" t="n">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="F7" t="n">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="G7" t="n">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D8" t="n">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="E8" t="n">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="F8" t="n">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="G8" t="n">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -726,19 +726,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D9" t="n">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="E9" t="n">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="F9" t="n">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="G9" t="n">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -761,19 +761,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D10" t="n">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E10" t="n">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="F10" t="n">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="G10" t="n">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -796,19 +796,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D11" t="n">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E11" t="n">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="F11" t="n">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="G11" t="n">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -831,19 +831,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D12" t="n">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E12" t="n">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="F12" t="n">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="G12" t="n">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D13" t="n">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E13" t="n">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="F13" t="n">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="G13" t="n">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -901,19 +901,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D14" t="n">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E14" t="n">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="F14" t="n">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="G14" t="n">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -936,19 +936,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D15" t="n">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E15" t="n">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="F15" t="n">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="G15" t="n">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D16" t="n">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E16" t="n">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="F16" t="n">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="G16" t="n">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1006,19 +1006,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D17" t="n">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E17" t="n">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="F17" t="n">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="G17" t="n">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2429</t>
+          <t>2461</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1126</t>
+          <t>1141</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>629</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>194</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>126</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
+++ b/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,63 +425,114 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>yhat</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Amazon Mean Forecast</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Amazon P70 Forecast</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Amazon P80 Forecast</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Amazon P90 Forecast</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Diff_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Pct_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Diff_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Pct_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Diff_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Pct_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Diff_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Pct_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Product Title</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
           <t>Week</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Prophet Forecast</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Amazon Mean Forecast</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Amazon P70 Forecast</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Amazon P80 Forecast</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Amazon P90 Forecast</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Product Title</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>is_holiday_week</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>W01</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
+      <c r="A2" t="n">
+        <v>304</v>
+      </c>
+      <c r="B2" t="n">
+        <v>280.9035125017313</v>
       </c>
       <c r="C2" t="n">
-        <v>166</v>
+        <v>357.0659320835991</v>
       </c>
       <c r="D2" t="n">
         <v>189</v>
@@ -495,28 +546,61 @@
       <c r="G2" t="n">
         <v>298</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="n">
+        <v>115</v>
+      </c>
+      <c r="I2" t="n">
+        <v>60.84656084656085</v>
+      </c>
+      <c r="J2" t="n">
+        <v>82</v>
+      </c>
+      <c r="K2" t="n">
+        <v>36.93693693693694</v>
+      </c>
+      <c r="L2" t="n">
+        <v>52</v>
+      </c>
+      <c r="M2" t="n">
+        <v>20.63492063492063</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.013422818791946</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I2" t="b">
+      <c r="R2" t="b">
         <v>0</v>
       </c>
+      <c r="S2" t="n">
+        <v/>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>W01</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>W02</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
+      <c r="A3" t="n">
+        <v>264</v>
+      </c>
+      <c r="B3" t="n">
+        <v>241.6333743941875</v>
       </c>
       <c r="C3" t="n">
-        <v>164</v>
+        <v>314.7324822548346</v>
       </c>
       <c r="D3" t="n">
         <v>185</v>
@@ -530,28 +614,61 @@
       <c r="G3" t="n">
         <v>314</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="n">
+        <v>79</v>
+      </c>
+      <c r="I3" t="n">
+        <v>42.7027027027027</v>
+      </c>
+      <c r="J3" t="n">
+        <v>43</v>
+      </c>
+      <c r="K3" t="n">
+        <v>19.45701357466064</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.325581395348837</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-50</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-15.92356687898089</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I3" t="b">
+      <c r="R3" t="b">
         <v>0</v>
       </c>
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>W02</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>W03</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
+      <c r="A4" t="n">
+        <v>206</v>
+      </c>
+      <c r="B4" t="n">
+        <v>186.0213320736907</v>
       </c>
       <c r="C4" t="n">
-        <v>156</v>
+        <v>253.2115765436316</v>
       </c>
       <c r="D4" t="n">
         <v>146</v>
@@ -565,28 +682,61 @@
       <c r="G4" t="n">
         <v>249</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="n">
+        <v>60</v>
+      </c>
+      <c r="I4" t="n">
+        <v>41.0958904109589</v>
+      </c>
+      <c r="J4" t="n">
+        <v>32</v>
+      </c>
+      <c r="K4" t="n">
+        <v>18.39080459770115</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.9803921568627451</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-43</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-17.26907630522089</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I4" t="b">
+      <c r="R4" t="b">
         <v>0</v>
       </c>
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>W03</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>W04</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
+      <c r="A5" t="n">
+        <v>164</v>
+      </c>
+      <c r="B5" t="n">
+        <v>143.0022912410329</v>
       </c>
       <c r="C5" t="n">
-        <v>143</v>
+        <v>211.4809228829062</v>
       </c>
       <c r="D5" t="n">
         <v>121</v>
@@ -600,28 +750,61 @@
       <c r="G5" t="n">
         <v>205</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="n">
+        <v>43</v>
+      </c>
+      <c r="I5" t="n">
+        <v>35.53719008264463</v>
+      </c>
+      <c r="J5" t="n">
+        <v>20</v>
+      </c>
+      <c r="K5" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-2.380952380952381</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-41</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-20</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I5" t="b">
+      <c r="R5" t="b">
         <v>0</v>
       </c>
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>W04</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>W05</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
+      <c r="A6" t="n">
+        <v>155</v>
+      </c>
+      <c r="B6" t="n">
+        <v>133.4808575393597</v>
       </c>
       <c r="C6" t="n">
-        <v>132</v>
+        <v>203.6954064904327</v>
       </c>
       <c r="D6" t="n">
         <v>121</v>
@@ -635,28 +818,61 @@
       <c r="G6" t="n">
         <v>211</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="n">
+        <v>34</v>
+      </c>
+      <c r="I6" t="n">
+        <v>28.09917355371901</v>
+      </c>
+      <c r="J6" t="n">
+        <v>10</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6.896551724137931</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-16</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-9.35672514619883</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-56</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-26.54028436018957</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I6" t="b">
+      <c r="R6" t="b">
         <v>0</v>
       </c>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>W05</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>W06</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
+      <c r="A7" t="n">
+        <v>170</v>
+      </c>
+      <c r="B7" t="n">
+        <v>148.515783694201</v>
       </c>
       <c r="C7" t="n">
-        <v>126</v>
+        <v>220.4333885239978</v>
       </c>
       <c r="D7" t="n">
         <v>120</v>
@@ -670,28 +886,61 @@
       <c r="G7" t="n">
         <v>208</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" t="n">
+        <v>50</v>
+      </c>
+      <c r="I7" t="n">
+        <v>41.66666666666667</v>
+      </c>
+      <c r="J7" t="n">
+        <v>26</v>
+      </c>
+      <c r="K7" t="n">
+        <v>18.05555555555555</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.591715976331361</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-38</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-18.26923076923077</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I7" t="b">
+      <c r="R7" t="b">
         <v>0</v>
       </c>
+      <c r="S7" t="n">
+        <v/>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>W06</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>W07</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
+      <c r="A8" t="n">
+        <v>178</v>
+      </c>
+      <c r="B8" t="n">
+        <v>157.5067113665154</v>
       </c>
       <c r="C8" t="n">
-        <v>126</v>
+        <v>226.0756861183193</v>
       </c>
       <c r="D8" t="n">
         <v>118</v>
@@ -705,28 +954,61 @@
       <c r="G8" t="n">
         <v>212</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="n">
+        <v>60</v>
+      </c>
+      <c r="I8" t="n">
+        <v>50.84745762711864</v>
+      </c>
+      <c r="J8" t="n">
+        <v>35</v>
+      </c>
+      <c r="K8" t="n">
+        <v>24.47552447552448</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4.705882352941177</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-34</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-16.0377358490566</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I8" t="b">
+      <c r="R8" t="b">
         <v>0</v>
       </c>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>W08</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
+      <c r="A9" t="n">
+        <v>161</v>
+      </c>
+      <c r="B9" t="n">
+        <v>139.6979607612877</v>
       </c>
       <c r="C9" t="n">
-        <v>128</v>
+        <v>212.2478360759163</v>
       </c>
       <c r="D9" t="n">
         <v>120</v>
@@ -740,28 +1022,61 @@
       <c r="G9" t="n">
         <v>216</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="n">
+        <v>41</v>
+      </c>
+      <c r="I9" t="n">
+        <v>34.16666666666666</v>
+      </c>
+      <c r="J9" t="n">
+        <v>16</v>
+      </c>
+      <c r="K9" t="n">
+        <v>11.03448275862069</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-11</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-6.395348837209303</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-55</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-25.46296296296297</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I9" t="b">
+      <c r="R9" t="b">
         <v>0</v>
       </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>W08</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>W09</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
+      <c r="A10" t="n">
+        <v>125</v>
+      </c>
+      <c r="B10" t="n">
+        <v>104.6971780359151</v>
       </c>
       <c r="C10" t="n">
-        <v>133</v>
+        <v>171.0456909854853</v>
       </c>
       <c r="D10" t="n">
         <v>117</v>
@@ -775,28 +1090,61 @@
       <c r="G10" t="n">
         <v>202</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.837606837606838</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-16</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-11.34751773049645</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-40</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-24.24242424242424</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-77</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-38.11881188118812</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I10" t="b">
+      <c r="R10" t="b">
         <v>0</v>
       </c>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>W09</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>W10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
+      <c r="A11" t="n">
+        <v>101</v>
+      </c>
+      <c r="B11" t="n">
+        <v>80.1048017936274</v>
       </c>
       <c r="C11" t="n">
-        <v>138</v>
+        <v>150.2056167643242</v>
       </c>
       <c r="D11" t="n">
         <v>117</v>
@@ -810,28 +1158,61 @@
       <c r="G11" t="n">
         <v>209</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="n">
+        <v>-16</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-13.67521367521368</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-40</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-28.36879432624114</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-66</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-39.52095808383233</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-108</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-51.67464114832536</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I11" t="b">
+      <c r="R11" t="b">
         <v>0</v>
       </c>
+      <c r="S11" t="n">
+        <v/>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>W11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
+      <c r="A12" t="n">
+        <v>105</v>
+      </c>
+      <c r="B12" t="n">
+        <v>82.13610866270488</v>
       </c>
       <c r="C12" t="n">
-        <v>147</v>
+        <v>157.1258537155761</v>
       </c>
       <c r="D12" t="n">
         <v>118</v>
@@ -845,28 +1226,61 @@
       <c r="G12" t="n">
         <v>215</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="n">
+        <v>-13</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-11.01694915254237</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-38</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-26.57342657342657</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-66</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-38.59649122807017</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-110</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-51.16279069767442</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I12" t="b">
+      <c r="R12" t="b">
         <v>0</v>
       </c>
+      <c r="S12" t="n">
+        <v/>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>W12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
+      <c r="A13" t="n">
+        <v>123</v>
+      </c>
+      <c r="B13" t="n">
+        <v>102.7171089987986</v>
       </c>
       <c r="C13" t="n">
-        <v>159</v>
+        <v>171.1133327853887</v>
       </c>
       <c r="D13" t="n">
         <v>120</v>
@@ -880,28 +1294,61 @@
       <c r="G13" t="n">
         <v>221</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-22</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-15.17241379310345</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-51</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-29.3103448275862</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-98</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-44.34389140271493</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I13" t="b">
+      <c r="R13" t="b">
         <v>0</v>
       </c>
+      <c r="S13" t="n">
+        <v/>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>W13</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
+      <c r="A14" t="n">
+        <v>145</v>
+      </c>
+      <c r="B14" t="n">
+        <v>124.0279733967856</v>
       </c>
       <c r="C14" t="n">
-        <v>173</v>
+        <v>195.0259577905297</v>
       </c>
       <c r="D14" t="n">
         <v>122</v>
@@ -915,28 +1362,61 @@
       <c r="G14" t="n">
         <v>226</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H14" t="n">
+        <v>23</v>
+      </c>
+      <c r="I14" t="n">
+        <v>18.85245901639344</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-2.027027027027027</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-33</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-18.53932584269663</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-81</v>
+      </c>
+      <c r="O14" t="n">
+        <v>-35.84070796460177</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I14" t="b">
+      <c r="R14" t="b">
         <v>0</v>
       </c>
+      <c r="S14" t="n">
+        <v/>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>W14</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
+      <c r="A15" t="n">
+        <v>162</v>
+      </c>
+      <c r="B15" t="n">
+        <v>138.5353971564476</v>
       </c>
       <c r="C15" t="n">
-        <v>187</v>
+        <v>216.7933561012148</v>
       </c>
       <c r="D15" t="n">
         <v>113</v>
@@ -950,28 +1430,61 @@
       <c r="G15" t="n">
         <v>215</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H15" t="n">
+        <v>49</v>
+      </c>
+      <c r="I15" t="n">
+        <v>43.36283185840708</v>
+      </c>
+      <c r="J15" t="n">
+        <v>24</v>
+      </c>
+      <c r="K15" t="n">
+        <v>17.39130434782609</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-2.994011976047904</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-53</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-24.65116279069768</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I15" t="b">
+      <c r="R15" t="b">
         <v>0</v>
       </c>
+      <c r="S15" t="n">
+        <v/>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>W15</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
+      <c r="A16" t="n">
+        <v>171</v>
+      </c>
+      <c r="B16" t="n">
+        <v>149.9625103252679</v>
       </c>
       <c r="C16" t="n">
-        <v>194</v>
+        <v>220.5097659341</v>
       </c>
       <c r="D16" t="n">
         <v>116</v>
@@ -985,28 +1498,61 @@
       <c r="G16" t="n">
         <v>220</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H16" t="n">
+        <v>55</v>
+      </c>
+      <c r="I16" t="n">
+        <v>47.41379310344828</v>
+      </c>
+      <c r="J16" t="n">
+        <v>30</v>
+      </c>
+      <c r="K16" t="n">
+        <v>21.27659574468085</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-49</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-22.27272727272727</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I16" t="b">
+      <c r="R16" t="b">
         <v>0</v>
       </c>
+      <c r="S16" t="n">
+        <v/>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>W16</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
+      <c r="A17" t="n">
+        <v>180</v>
+      </c>
+      <c r="B17" t="n">
+        <v>158.868778141344</v>
       </c>
       <c r="C17" t="n">
-        <v>189</v>
+        <v>229.7222424079234</v>
       </c>
       <c r="D17" t="n">
         <v>111</v>
@@ -1020,13 +1566,50 @@
       <c r="G17" t="n">
         <v>209</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H17" t="n">
+        <v>69</v>
+      </c>
+      <c r="I17" t="n">
+        <v>62.16216216216216</v>
+      </c>
+      <c r="J17" t="n">
+        <v>45</v>
+      </c>
+      <c r="K17" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="L17" t="n">
+        <v>17</v>
+      </c>
+      <c r="M17" t="n">
+        <v>10.42944785276074</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-29</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-13.8755980861244</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I17" t="b">
+      <c r="R17" t="b">
         <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v/>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1735,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2461</t>
+          <t>2714</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1747,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1141</t>
+          <t>1602</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1759,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>938</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1771,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>304</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1783,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2024-12-08</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1795,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>101</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1807,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-02-09</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
+++ b/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,19 +425,19 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Week</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Forecast</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>yhat</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
@@ -460,79 +460,28 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Diff_Mean Forecast</t>
+          <t>Product Title</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Pct_Mean Forecast</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Diff_P70 Forecast</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Pct_P70 Forecast</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Diff_P80 Forecast</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Pct_P80 Forecast</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Diff_P90 Forecast</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Pct_P90 Forecast</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Product Title</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
           <t>is_holiday_week</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Week</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>304</v>
-      </c>
-      <c r="B2" t="n">
-        <v>280.9035125017313</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>W01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>357.0659320835991</v>
+        <v>292</v>
       </c>
       <c r="D2" t="n">
         <v>189</v>
@@ -546,61 +495,28 @@
       <c r="G2" t="n">
         <v>298</v>
       </c>
-      <c r="H2" t="n">
-        <v>115</v>
-      </c>
-      <c r="I2" t="n">
-        <v>60.84656084656085</v>
-      </c>
-      <c r="J2" t="n">
-        <v>82</v>
-      </c>
-      <c r="K2" t="n">
-        <v>36.93693693693694</v>
-      </c>
-      <c r="L2" t="n">
-        <v>52</v>
-      </c>
-      <c r="M2" t="n">
-        <v>20.63492063492063</v>
-      </c>
-      <c r="N2" t="n">
-        <v>6</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2.013422818791946</v>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R2" t="b">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v/>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>W01</t>
-        </is>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>264</v>
-      </c>
-      <c r="B3" t="n">
-        <v>241.6333743941875</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>W02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>314.7324822548346</v>
+        <v>252</v>
       </c>
       <c r="D3" t="n">
         <v>185</v>
@@ -614,61 +530,28 @@
       <c r="G3" t="n">
         <v>314</v>
       </c>
-      <c r="H3" t="n">
-        <v>79</v>
-      </c>
-      <c r="I3" t="n">
-        <v>42.7027027027027</v>
-      </c>
-      <c r="J3" t="n">
-        <v>43</v>
-      </c>
-      <c r="K3" t="n">
-        <v>19.45701357466064</v>
-      </c>
-      <c r="L3" t="n">
-        <v>6</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2.325581395348837</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-50</v>
-      </c>
-      <c r="O3" t="n">
-        <v>-15.92356687898089</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v/>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>W02</t>
-        </is>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>206</v>
-      </c>
-      <c r="B4" t="n">
-        <v>186.0213320736907</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>W03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>253.2115765436316</v>
+        <v>196</v>
       </c>
       <c r="D4" t="n">
         <v>146</v>
@@ -682,61 +565,28 @@
       <c r="G4" t="n">
         <v>249</v>
       </c>
-      <c r="H4" t="n">
-        <v>60</v>
-      </c>
-      <c r="I4" t="n">
-        <v>41.0958904109589</v>
-      </c>
-      <c r="J4" t="n">
-        <v>32</v>
-      </c>
-      <c r="K4" t="n">
-        <v>18.39080459770115</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9803921568627451</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-43</v>
-      </c>
-      <c r="O4" t="n">
-        <v>-17.26907630522089</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R4" t="b">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v/>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>W03</t>
-        </is>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>164</v>
-      </c>
-      <c r="B5" t="n">
-        <v>143.0022912410329</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>W04</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>211.4809228829062</v>
+        <v>153</v>
       </c>
       <c r="D5" t="n">
         <v>121</v>
@@ -750,61 +600,28 @@
       <c r="G5" t="n">
         <v>205</v>
       </c>
-      <c r="H5" t="n">
-        <v>43</v>
-      </c>
-      <c r="I5" t="n">
-        <v>35.53719008264463</v>
-      </c>
-      <c r="J5" t="n">
-        <v>20</v>
-      </c>
-      <c r="K5" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="L5" t="n">
-        <v>-4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>-2.380952380952381</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-41</v>
-      </c>
-      <c r="O5" t="n">
-        <v>-20</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v/>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>W04</t>
-        </is>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>155</v>
-      </c>
-      <c r="B6" t="n">
-        <v>133.4808575393597</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>W05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>203.6954064904327</v>
+        <v>144</v>
       </c>
       <c r="D6" t="n">
         <v>121</v>
@@ -818,61 +635,28 @@
       <c r="G6" t="n">
         <v>211</v>
       </c>
-      <c r="H6" t="n">
-        <v>34</v>
-      </c>
-      <c r="I6" t="n">
-        <v>28.09917355371901</v>
-      </c>
-      <c r="J6" t="n">
-        <v>10</v>
-      </c>
-      <c r="K6" t="n">
-        <v>6.896551724137931</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-16</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-9.35672514619883</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-56</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-26.54028436018957</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R6" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v/>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>W05</t>
-        </is>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>170</v>
-      </c>
-      <c r="B7" t="n">
-        <v>148.515783694201</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>W06</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>220.4333885239978</v>
+        <v>159</v>
       </c>
       <c r="D7" t="n">
         <v>120</v>
@@ -886,61 +670,28 @@
       <c r="G7" t="n">
         <v>208</v>
       </c>
-      <c r="H7" t="n">
-        <v>50</v>
-      </c>
-      <c r="I7" t="n">
-        <v>41.66666666666667</v>
-      </c>
-      <c r="J7" t="n">
-        <v>26</v>
-      </c>
-      <c r="K7" t="n">
-        <v>18.05555555555555</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.591715976331361</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-38</v>
-      </c>
-      <c r="O7" t="n">
-        <v>-18.26923076923077</v>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v/>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>W06</t>
-        </is>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>178</v>
-      </c>
-      <c r="B8" t="n">
-        <v>157.5067113665154</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>226.0756861183193</v>
+        <v>168</v>
       </c>
       <c r="D8" t="n">
         <v>118</v>
@@ -954,61 +705,28 @@
       <c r="G8" t="n">
         <v>212</v>
       </c>
-      <c r="H8" t="n">
-        <v>60</v>
-      </c>
-      <c r="I8" t="n">
-        <v>50.84745762711864</v>
-      </c>
-      <c r="J8" t="n">
-        <v>35</v>
-      </c>
-      <c r="K8" t="n">
-        <v>24.47552447552448</v>
-      </c>
-      <c r="L8" t="n">
-        <v>8</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4.705882352941177</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-34</v>
-      </c>
-      <c r="O8" t="n">
-        <v>-16.0377358490566</v>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v/>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>W07</t>
-        </is>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>161</v>
-      </c>
-      <c r="B9" t="n">
-        <v>139.6979607612877</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>W08</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>212.2478360759163</v>
+        <v>150</v>
       </c>
       <c r="D9" t="n">
         <v>120</v>
@@ -1022,61 +740,28 @@
       <c r="G9" t="n">
         <v>216</v>
       </c>
-      <c r="H9" t="n">
-        <v>41</v>
-      </c>
-      <c r="I9" t="n">
-        <v>34.16666666666666</v>
-      </c>
-      <c r="J9" t="n">
-        <v>16</v>
-      </c>
-      <c r="K9" t="n">
-        <v>11.03448275862069</v>
-      </c>
-      <c r="L9" t="n">
-        <v>-11</v>
-      </c>
-      <c r="M9" t="n">
-        <v>-6.395348837209303</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-55</v>
-      </c>
-      <c r="O9" t="n">
-        <v>-25.46296296296297</v>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R9" t="b">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v/>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>W08</t>
-        </is>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>125</v>
-      </c>
-      <c r="B10" t="n">
-        <v>104.6971780359151</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>W09</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>171.0456909854853</v>
+        <v>115</v>
       </c>
       <c r="D10" t="n">
         <v>117</v>
@@ -1090,61 +775,28 @@
       <c r="G10" t="n">
         <v>202</v>
       </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6.837606837606838</v>
-      </c>
-      <c r="J10" t="n">
-        <v>-16</v>
-      </c>
-      <c r="K10" t="n">
-        <v>-11.34751773049645</v>
-      </c>
-      <c r="L10" t="n">
-        <v>-40</v>
-      </c>
-      <c r="M10" t="n">
-        <v>-24.24242424242424</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-77</v>
-      </c>
-      <c r="O10" t="n">
-        <v>-38.11881188118812</v>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R10" t="b">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v/>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>W09</t>
-        </is>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>101</v>
-      </c>
-      <c r="B11" t="n">
-        <v>80.1048017936274</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>150.2056167643242</v>
+        <v>99</v>
       </c>
       <c r="D11" t="n">
         <v>117</v>
@@ -1158,61 +810,28 @@
       <c r="G11" t="n">
         <v>209</v>
       </c>
-      <c r="H11" t="n">
-        <v>-16</v>
-      </c>
-      <c r="I11" t="n">
-        <v>-13.67521367521368</v>
-      </c>
-      <c r="J11" t="n">
-        <v>-40</v>
-      </c>
-      <c r="K11" t="n">
-        <v>-28.36879432624114</v>
-      </c>
-      <c r="L11" t="n">
-        <v>-66</v>
-      </c>
-      <c r="M11" t="n">
-        <v>-39.52095808383233</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-108</v>
-      </c>
-      <c r="O11" t="n">
-        <v>-51.67464114832536</v>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R11" t="b">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v/>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>W10</t>
-        </is>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>105</v>
-      </c>
-      <c r="B12" t="n">
-        <v>82.13610866270488</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>157.1258537155761</v>
+        <v>100</v>
       </c>
       <c r="D12" t="n">
         <v>118</v>
@@ -1226,61 +845,28 @@
       <c r="G12" t="n">
         <v>215</v>
       </c>
-      <c r="H12" t="n">
-        <v>-13</v>
-      </c>
-      <c r="I12" t="n">
-        <v>-11.01694915254237</v>
-      </c>
-      <c r="J12" t="n">
-        <v>-38</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-26.57342657342657</v>
-      </c>
-      <c r="L12" t="n">
-        <v>-66</v>
-      </c>
-      <c r="M12" t="n">
-        <v>-38.59649122807017</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-110</v>
-      </c>
-      <c r="O12" t="n">
-        <v>-51.16279069767442</v>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R12" t="b">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v/>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>W11</t>
-        </is>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>123</v>
-      </c>
-      <c r="B13" t="n">
-        <v>102.7171089987986</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
       </c>
       <c r="C13" t="n">
-        <v>171.1133327853887</v>
+        <v>113</v>
       </c>
       <c r="D13" t="n">
         <v>120</v>
@@ -1294,61 +880,28 @@
       <c r="G13" t="n">
         <v>221</v>
       </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>-22</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-15.17241379310345</v>
-      </c>
-      <c r="L13" t="n">
-        <v>-51</v>
-      </c>
-      <c r="M13" t="n">
-        <v>-29.3103448275862</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-98</v>
-      </c>
-      <c r="O13" t="n">
-        <v>-44.34389140271493</v>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R13" t="b">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v/>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>W12</t>
-        </is>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>145</v>
-      </c>
-      <c r="B14" t="n">
-        <v>124.0279733967856</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
       </c>
       <c r="C14" t="n">
-        <v>195.0259577905297</v>
+        <v>135</v>
       </c>
       <c r="D14" t="n">
         <v>122</v>
@@ -1362,61 +915,28 @@
       <c r="G14" t="n">
         <v>226</v>
       </c>
-      <c r="H14" t="n">
-        <v>23</v>
-      </c>
-      <c r="I14" t="n">
-        <v>18.85245901639344</v>
-      </c>
-      <c r="J14" t="n">
-        <v>-3</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-2.027027027027027</v>
-      </c>
-      <c r="L14" t="n">
-        <v>-33</v>
-      </c>
-      <c r="M14" t="n">
-        <v>-18.53932584269663</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-81</v>
-      </c>
-      <c r="O14" t="n">
-        <v>-35.84070796460177</v>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R14" t="b">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v/>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>W13</t>
-        </is>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>162</v>
-      </c>
-      <c r="B15" t="n">
-        <v>138.5353971564476</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
       </c>
       <c r="C15" t="n">
-        <v>216.7933561012148</v>
+        <v>149</v>
       </c>
       <c r="D15" t="n">
         <v>113</v>
@@ -1430,61 +950,28 @@
       <c r="G15" t="n">
         <v>215</v>
       </c>
-      <c r="H15" t="n">
-        <v>49</v>
-      </c>
-      <c r="I15" t="n">
-        <v>43.36283185840708</v>
-      </c>
-      <c r="J15" t="n">
-        <v>24</v>
-      </c>
-      <c r="K15" t="n">
-        <v>17.39130434782609</v>
-      </c>
-      <c r="L15" t="n">
-        <v>-5</v>
-      </c>
-      <c r="M15" t="n">
-        <v>-2.994011976047904</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-53</v>
-      </c>
-      <c r="O15" t="n">
-        <v>-24.65116279069768</v>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R15" t="b">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v/>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>W14</t>
-        </is>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>171</v>
-      </c>
-      <c r="B16" t="n">
-        <v>149.9625103252679</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
       </c>
       <c r="C16" t="n">
-        <v>220.5097659341</v>
+        <v>162</v>
       </c>
       <c r="D16" t="n">
         <v>116</v>
@@ -1498,61 +985,28 @@
       <c r="G16" t="n">
         <v>220</v>
       </c>
-      <c r="H16" t="n">
-        <v>55</v>
-      </c>
-      <c r="I16" t="n">
-        <v>47.41379310344828</v>
-      </c>
-      <c r="J16" t="n">
-        <v>30</v>
-      </c>
-      <c r="K16" t="n">
-        <v>21.27659574468085</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-49</v>
-      </c>
-      <c r="O16" t="n">
-        <v>-22.27272727272727</v>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R16" t="b">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v/>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>W15</t>
-        </is>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>180</v>
-      </c>
-      <c r="B17" t="n">
-        <v>158.868778141344</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
       </c>
       <c r="C17" t="n">
-        <v>229.7222424079234</v>
+        <v>169</v>
       </c>
       <c r="D17" t="n">
         <v>111</v>
@@ -1566,50 +1020,13 @@
       <c r="G17" t="n">
         <v>209</v>
       </c>
-      <c r="H17" t="n">
-        <v>69</v>
-      </c>
-      <c r="I17" t="n">
-        <v>62.16216216216216</v>
-      </c>
-      <c r="J17" t="n">
-        <v>45</v>
-      </c>
-      <c r="K17" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L17" t="n">
-        <v>17</v>
-      </c>
-      <c r="M17" t="n">
-        <v>10.42944785276074</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-29</v>
-      </c>
-      <c r="O17" t="n">
-        <v>-13.8755980861244</v>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R17" t="b">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v/>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>W16</t>
-        </is>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1735,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2714</t>
+          <t>2556</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1602</t>
+          <t>1514</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>938</t>
+          <t>893</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>292</t>
         </is>
       </c>
     </row>
@@ -1795,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>99</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
+++ b/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D2" t="n">
         <v>189</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D4" t="n">
         <v>146</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D5" t="n">
         <v>121</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D9" t="n">
         <v>120</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D14" t="n">
         <v>122</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D16" t="n">
         <v>116</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D17" t="n">
         <v>111</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2556</t>
+          <t>2557</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1514</t>
+          <t>1516</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>893</t>
+          <t>894</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>291</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
+++ b/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
@@ -435,7 +435,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Forecast</t>
+          <t>Prophet Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -481,19 +481,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>291</v>
+        <v>166</v>
       </c>
       <c r="D2" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E2" t="n">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F2" t="n">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="G2" t="n">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>252</v>
+        <v>165</v>
       </c>
       <c r="D3" t="n">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="E3" t="n">
-        <v>221</v>
+        <v>134</v>
       </c>
       <c r="F3" t="n">
-        <v>258</v>
+        <v>160</v>
       </c>
       <c r="G3" t="n">
-        <v>314</v>
+        <v>202</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -551,19 +551,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="D4" t="n">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E4" t="n">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F4" t="n">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G4" t="n">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -589,16 +589,16 @@
         <v>154</v>
       </c>
       <c r="D5" t="n">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="E5" t="n">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="F5" t="n">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="G5" t="n">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D6" t="n">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E6" t="n">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="F6" t="n">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="G6" t="n">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="D7" t="n">
+        <v>98</v>
+      </c>
+      <c r="E7" t="n">
         <v>120</v>
       </c>
-      <c r="E7" t="n">
-        <v>144</v>
-      </c>
       <c r="F7" t="n">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="G7" t="n">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="D8" t="n">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="E8" t="n">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="F8" t="n">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="G8" t="n">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -726,19 +726,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="D9" t="n">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="E9" t="n">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="F9" t="n">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="G9" t="n">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -761,19 +761,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D10" t="n">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="E10" t="n">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="F10" t="n">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="G10" t="n">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -796,19 +796,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="D11" t="n">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E11" t="n">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="F11" t="n">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="G11" t="n">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -831,19 +831,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="D12" t="n">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="E12" t="n">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="F12" t="n">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="G12" t="n">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="D13" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E13" t="n">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="F13" t="n">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="G13" t="n">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -901,19 +901,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="D14" t="n">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E14" t="n">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F14" t="n">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="G14" t="n">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -936,19 +936,19 @@
         </is>
       </c>
       <c r="C15" t="n">
+        <v>174</v>
+      </c>
+      <c r="D15" t="n">
+        <v>123</v>
+      </c>
+      <c r="E15" t="n">
         <v>149</v>
       </c>
-      <c r="D15" t="n">
-        <v>113</v>
-      </c>
-      <c r="E15" t="n">
-        <v>138</v>
-      </c>
       <c r="F15" t="n">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="G15" t="n">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="D16" t="n">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E16" t="n">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="F16" t="n">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="G16" t="n">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1006,19 +1006,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="D17" t="n">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E17" t="n">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="F17" t="n">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="G17" t="n">
-        <v>209</v>
+        <v>242</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-01-01 to 2024-12-01</t>
+          <t>2023-01-01 to 2024-11-24</t>
         </is>
       </c>
     </row>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>298</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>160</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>160</t>
         </is>
       </c>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>15516 units</t>
+          <t>15203 units</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2557</t>
+          <t>2434</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1516</t>
+          <t>1170</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>894</t>
+          <t>647</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>196</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-08</t>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>125</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-01-12</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
+++ b/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D2" t="n">
         <v>187</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D3" t="n">
         <v>110</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>162</v>
+        <v>163.5</v>
       </c>
       <c r="D4" t="n">
         <v>142</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>154</v>
+        <v>154.5</v>
       </c>
       <c r="D5" t="n">
         <v>101</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="D6" t="n">
         <v>94</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>131</v>
+        <v>152.5</v>
       </c>
       <c r="D7" t="n">
         <v>98</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="D8" t="n">
         <v>95</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="D9" t="n">
         <v>94</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>128</v>
+        <v>141.5</v>
       </c>
       <c r="D10" t="n">
         <v>98</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>133</v>
+        <v>169.5</v>
       </c>
       <c r="D11" t="n">
         <v>127</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>139</v>
+        <v>156.5</v>
       </c>
       <c r="D12" t="n">
         <v>130</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="D13" t="n">
         <v>130</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D14" t="n">
         <v>128</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>174</v>
+        <v>164.5</v>
       </c>
       <c r="D15" t="n">
         <v>123</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D16" t="n">
         <v>128</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D17" t="n">
         <v>127</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2434</t>
+          <t>2626</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1170</t>
+          <t>1286</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>647</t>
+          <t>661</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>197</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-09</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>142</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-26</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
+++ b/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>170</v>
+        <v>170.5</v>
       </c>
       <c r="D2" t="n">
         <v>187</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="D3" t="n">
         <v>110</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>163.5</v>
+        <v>195</v>
       </c>
       <c r="D4" t="n">
         <v>142</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>154.5</v>
+        <v>176.5</v>
       </c>
       <c r="D5" t="n">
         <v>101</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>174</v>
+        <v>155.5</v>
       </c>
       <c r="D6" t="n">
         <v>94</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>153</v>
+        <v>151.5</v>
       </c>
       <c r="D8" t="n">
         <v>95</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>145</v>
+        <v>131.5</v>
       </c>
       <c r="D9" t="n">
         <v>94</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>141.5</v>
+        <v>144</v>
       </c>
       <c r="D10" t="n">
         <v>98</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>169.5</v>
+        <v>153</v>
       </c>
       <c r="D11" t="n">
         <v>127</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>156.5</v>
+        <v>162.5</v>
       </c>
       <c r="D12" t="n">
         <v>130</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>164</v>
+        <v>164.5</v>
       </c>
       <c r="D13" t="n">
         <v>130</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="D14" t="n">
         <v>128</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>164.5</v>
+        <v>161</v>
       </c>
       <c r="D15" t="n">
         <v>123</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>197</v>
+        <v>166.5</v>
       </c>
       <c r="D16" t="n">
         <v>128</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D17" t="n">
         <v>127</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2626</t>
+          <t>2668</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1286</t>
+          <t>1350</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>759</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>217</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2024-12-08</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>132</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-01-19</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
+++ b/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>170.5</v>
+        <v>118</v>
       </c>
       <c r="D2" t="n">
         <v>187</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>217</v>
+        <v>136.3</v>
       </c>
       <c r="D3" t="n">
         <v>110</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>195</v>
+        <v>126.6</v>
       </c>
       <c r="D4" t="n">
         <v>142</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>176.5</v>
+        <v>116.8</v>
       </c>
       <c r="D5" t="n">
         <v>101</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>155.5</v>
+        <v>104.8</v>
       </c>
       <c r="D6" t="n">
         <v>94</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>152.5</v>
+        <v>100.3</v>
       </c>
       <c r="D7" t="n">
         <v>98</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>151.5</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D8" t="n">
         <v>95</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>131.5</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="D9" t="n">
         <v>94</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="D10" t="n">
         <v>98</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>153</v>
+        <v>101.1</v>
       </c>
       <c r="D11" t="n">
         <v>127</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>162.5</v>
+        <v>106.7</v>
       </c>
       <c r="D12" t="n">
         <v>130</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>164.5</v>
+        <v>109.9</v>
       </c>
       <c r="D13" t="n">
         <v>130</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>193</v>
+        <v>124.9</v>
       </c>
       <c r="D14" t="n">
         <v>128</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>161</v>
+        <v>116.6</v>
       </c>
       <c r="D15" t="n">
         <v>123</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>166.5</v>
+        <v>123</v>
       </c>
       <c r="D16" t="n">
         <v>128</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>174</v>
+        <v>128.4</v>
       </c>
       <c r="D17" t="n">
         <v>127</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2668</t>
+          <t>1798</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1350</t>
+          <t>891</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>759</t>
+          <t>498</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>136</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>90</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
+++ b/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>118</v>
+        <v>231.6</v>
       </c>
       <c r="D2" t="n">
         <v>187</v>
@@ -500,8 +500,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="I2" t="n">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>136.3</v>
+        <v>222.8</v>
       </c>
       <c r="D3" t="n">
         <v>110</v>
@@ -535,8 +535,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="I3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>126.6</v>
+        <v>207.2</v>
       </c>
       <c r="D4" t="n">
         <v>142</v>
@@ -570,8 +570,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="I4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>116.8</v>
+        <v>165.1</v>
       </c>
       <c r="D5" t="n">
         <v>101</v>
@@ -605,8 +605,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="I5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>104.8</v>
+        <v>138.5</v>
       </c>
       <c r="D6" t="n">
         <v>94</v>
@@ -640,8 +640,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="I6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>100.3</v>
+        <v>136.7</v>
       </c>
       <c r="D7" t="n">
         <v>98</v>
@@ -675,8 +675,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="I7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>98.09999999999999</v>
+        <v>143.6</v>
       </c>
       <c r="D8" t="n">
         <v>95</v>
@@ -710,8 +710,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="I8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>90.09999999999999</v>
+        <v>139.3</v>
       </c>
       <c r="D9" t="n">
         <v>94</v>
@@ -745,8 +745,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="I9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>96</v>
+        <v>136.9</v>
       </c>
       <c r="D10" t="n">
         <v>98</v>
@@ -780,8 +780,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="I10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>101.1</v>
+        <v>132.2</v>
       </c>
       <c r="D11" t="n">
         <v>127</v>
@@ -815,8 +815,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="I11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>106.7</v>
+        <v>123.7</v>
       </c>
       <c r="D12" t="n">
         <v>130</v>
@@ -850,8 +850,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="I12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>109.9</v>
+        <v>123.9</v>
       </c>
       <c r="D13" t="n">
         <v>130</v>
@@ -885,8 +885,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="I13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>124.9</v>
+        <v>141.8</v>
       </c>
       <c r="D14" t="n">
         <v>128</v>
@@ -920,8 +920,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="I14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>116.6</v>
+        <v>134</v>
       </c>
       <c r="D15" t="n">
         <v>123</v>
@@ -955,8 +955,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="I15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>123</v>
+        <v>142.4</v>
       </c>
       <c r="D16" t="n">
         <v>128</v>
@@ -990,8 +990,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="I16" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>128.4</v>
+        <v>149</v>
       </c>
       <c r="D17" t="n">
         <v>127</v>
@@ -1025,8 +1025,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="I17" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1798</t>
+          <t>2469</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>891</t>
+          <t>1385</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>827</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>232</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-08</t>
+          <t>2024-12-01</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>124</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-02-09</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
+++ b/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>231.6</v>
+        <v>175.1</v>
       </c>
       <c r="D2" t="n">
         <v>187</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>222.8</v>
+        <v>146.7</v>
       </c>
       <c r="D3" t="n">
         <v>110</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>207.2</v>
+        <v>172.2</v>
       </c>
       <c r="D4" t="n">
         <v>142</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>165.1</v>
+        <v>125</v>
       </c>
       <c r="D5" t="n">
         <v>101</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>138.5</v>
+        <v>113.25</v>
       </c>
       <c r="D6" t="n">
         <v>94</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>136.7</v>
+        <v>117.85</v>
       </c>
       <c r="D7" t="n">
         <v>98</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>143.6</v>
+        <v>115.75</v>
       </c>
       <c r="D8" t="n">
         <v>95</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>139.3</v>
+        <v>107.05</v>
       </c>
       <c r="D9" t="n">
         <v>94</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>136.9</v>
+        <v>114.85</v>
       </c>
       <c r="D10" t="n">
         <v>98</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>132.2</v>
+        <v>140.7</v>
       </c>
       <c r="D11" t="n">
         <v>127</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>123.7</v>
+        <v>147.2</v>
       </c>
       <c r="D12" t="n">
         <v>130</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>123.9</v>
+        <v>150.4</v>
       </c>
       <c r="D13" t="n">
         <v>130</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>141.8</v>
+        <v>164.3</v>
       </c>
       <c r="D14" t="n">
         <v>128</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>134</v>
+        <v>133.5</v>
       </c>
       <c r="D15" t="n">
         <v>123</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>142.4</v>
+        <v>137.3</v>
       </c>
       <c r="D16" t="n">
         <v>128</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>149</v>
+        <v>137.85</v>
       </c>
       <c r="D17" t="n">
         <v>127</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2469</t>
+          <t>2199</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1385</t>
+          <t>1073</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>827</t>
+          <t>619</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>175</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>107</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-01-19</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
+++ b/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
@@ -500,8 +500,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -535,8 +535,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -570,8 +570,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -605,8 +605,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -640,8 +640,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -675,8 +675,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -710,8 +710,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -745,8 +745,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -780,8 +780,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -815,8 +815,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -850,8 +850,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -885,8 +885,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,8 +920,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -955,8 +955,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -990,8 +990,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1025,8 +1025,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
+++ b/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>146.7</v>
+        <v>171.8</v>
       </c>
       <c r="D3" t="n">
         <v>110</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>125</v>
+        <v>150.1</v>
       </c>
       <c r="D5" t="n">
         <v>101</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>113.25</v>
+        <v>135.5</v>
       </c>
       <c r="D6" t="n">
         <v>94</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>117.85</v>
+        <v>131.7</v>
       </c>
       <c r="D7" t="n">
         <v>98</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>115.75</v>
+        <v>128.6</v>
       </c>
       <c r="D8" t="n">
         <v>95</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>107.05</v>
+        <v>120.3</v>
       </c>
       <c r="D9" t="n">
         <v>94</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>114.85</v>
+        <v>127.4</v>
       </c>
       <c r="D10" t="n">
         <v>98</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>133.5</v>
+        <v>154</v>
       </c>
       <c r="D15" t="n">
         <v>123</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>137.3</v>
+        <v>162.4</v>
       </c>
       <c r="D16" t="n">
         <v>128</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>137.85</v>
+        <v>168.5</v>
       </c>
       <c r="D17" t="n">
         <v>127</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2199</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1073</t>
+          <t>1185</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>669</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>120</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
+++ b/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>175.1</v>
+        <v>172.1</v>
       </c>
       <c r="D2" t="n">
         <v>187</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>171.8</v>
+        <v>168.8</v>
       </c>
       <c r="D3" t="n">
         <v>110</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>172.2</v>
+        <v>169.2</v>
       </c>
       <c r="D4" t="n">
         <v>142</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>150.1</v>
+        <v>147.6</v>
       </c>
       <c r="D5" t="n">
         <v>101</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>135.5</v>
+        <v>133.5</v>
       </c>
       <c r="D6" t="n">
         <v>94</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>131.7</v>
+        <v>130.2</v>
       </c>
       <c r="D7" t="n">
         <v>98</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>128.6</v>
+        <v>127.1</v>
       </c>
       <c r="D8" t="n">
         <v>95</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>120.3</v>
+        <v>119.3</v>
       </c>
       <c r="D9" t="n">
         <v>94</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>127.4</v>
+        <v>125.9</v>
       </c>
       <c r="D10" t="n">
         <v>98</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>140.7</v>
+        <v>139.7</v>
       </c>
       <c r="D11" t="n">
         <v>127</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>147.2</v>
+        <v>146.2</v>
       </c>
       <c r="D12" t="n">
         <v>130</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>164.3</v>
+        <v>164.8</v>
       </c>
       <c r="D14" t="n">
         <v>128</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>154</v>
+        <v>154.5</v>
       </c>
       <c r="D15" t="n">
         <v>123</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>162.4</v>
+        <v>162.9</v>
       </c>
       <c r="D16" t="n">
         <v>128</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2381</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1185</t>
+          <t>1168</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>658</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>172</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>119</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
+++ b/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
@@ -435,7 +435,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>MyForecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>172.1</v>
+        <v>172</v>
       </c>
       <c r="D2" t="n">
         <v>187</v>
@@ -500,7 +500,7 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I2" t="b">
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>168.8</v>
+        <v>168</v>
       </c>
       <c r="D3" t="n">
         <v>110</v>
@@ -535,7 +535,7 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I3" t="b">
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>169.2</v>
+        <v>168</v>
       </c>
       <c r="D4" t="n">
         <v>142</v>
@@ -570,7 +570,7 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I4" t="b">
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>147.6</v>
+        <v>146</v>
       </c>
       <c r="D5" t="n">
         <v>101</v>
@@ -605,7 +605,7 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I5" t="b">
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>133.5</v>
+        <v>132</v>
       </c>
       <c r="D6" t="n">
         <v>94</v>
@@ -640,7 +640,7 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I6" t="b">
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>130.2</v>
+        <v>129</v>
       </c>
       <c r="D7" t="n">
         <v>98</v>
@@ -675,7 +675,7 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I7" t="b">
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>127.1</v>
+        <v>126</v>
       </c>
       <c r="D8" t="n">
         <v>95</v>
@@ -710,7 +710,7 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I8" t="b">
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>119.3</v>
+        <v>118</v>
       </c>
       <c r="D9" t="n">
         <v>94</v>
@@ -745,7 +745,7 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I9" t="b">
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>125.9</v>
+        <v>125</v>
       </c>
       <c r="D10" t="n">
         <v>98</v>
@@ -780,7 +780,7 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I10" t="b">
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>139.7</v>
+        <v>138</v>
       </c>
       <c r="D11" t="n">
         <v>127</v>
@@ -815,7 +815,7 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I11" t="b">
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>146.2</v>
+        <v>144</v>
       </c>
       <c r="D12" t="n">
         <v>130</v>
@@ -850,7 +850,7 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I12" t="b">
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>150.4</v>
+        <v>148</v>
       </c>
       <c r="D13" t="n">
         <v>130</v>
@@ -885,7 +885,7 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I13" t="b">
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>164.8</v>
+        <v>162</v>
       </c>
       <c r="D14" t="n">
         <v>128</v>
@@ -920,7 +920,7 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I14" t="b">
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>154.5</v>
+        <v>152</v>
       </c>
       <c r="D15" t="n">
         <v>123</v>
@@ -955,7 +955,7 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I15" t="b">
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>162.9</v>
+        <v>160</v>
       </c>
       <c r="D16" t="n">
         <v>128</v>
@@ -990,7 +990,7 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I16" t="b">
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>168.5</v>
+        <v>166</v>
       </c>
       <c r="D17" t="n">
         <v>127</v>
@@ -1025,7 +1025,7 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I17" t="b">
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2381</t>
+          <t>2355</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1168</t>
+          <t>1159</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>654</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>118</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
+++ b/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
@@ -481,19 +481,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D2" t="n">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E2" t="n">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="F2" t="n">
+        <v>233</v>
+      </c>
+      <c r="G2" t="n">
         <v>270</v>
-      </c>
-      <c r="G2" t="n">
-        <v>340</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="D3" t="n">
-        <v>110</v>
+        <v>192</v>
       </c>
       <c r="E3" t="n">
-        <v>134</v>
+        <v>228</v>
       </c>
       <c r="F3" t="n">
-        <v>160</v>
+        <v>264</v>
       </c>
       <c r="G3" t="n">
-        <v>202</v>
+        <v>318</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -551,19 +551,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="D4" t="n">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="E4" t="n">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="F4" t="n">
-        <v>209</v>
+        <v>270</v>
       </c>
       <c r="G4" t="n">
-        <v>267</v>
+        <v>328</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -586,19 +586,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="D5" t="n">
-        <v>101</v>
+        <v>187</v>
       </c>
       <c r="E5" t="n">
-        <v>122</v>
+        <v>223</v>
       </c>
       <c r="F5" t="n">
-        <v>147</v>
+        <v>259</v>
       </c>
       <c r="G5" t="n">
-        <v>187</v>
+        <v>314</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="D6" t="n">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="E6" t="n">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="F6" t="n">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="G6" t="n">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="D7" t="n">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="E7" t="n">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="F7" t="n">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="G7" t="n">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="D8" t="n">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="E8" t="n">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="F8" t="n">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="G8" t="n">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -726,19 +726,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="D9" t="n">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="E9" t="n">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="F9" t="n">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="G9" t="n">
-        <v>177</v>
+        <v>235</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -761,19 +761,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="D10" t="n">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="E10" t="n">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="F10" t="n">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="G10" t="n">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -796,19 +796,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="D11" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E11" t="n">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F11" t="n">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G11" t="n">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -831,19 +831,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="D12" t="n">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E12" t="n">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F12" t="n">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="G12" t="n">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="D13" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E13" t="n">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F13" t="n">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G13" t="n">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -901,19 +901,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D14" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E14" t="n">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F14" t="n">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="G14" t="n">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -936,19 +936,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D15" t="n">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E15" t="n">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F15" t="n">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="G15" t="n">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D16" t="n">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E16" t="n">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="F16" t="n">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="G16" t="n">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1006,19 +1006,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="D17" t="n">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="E17" t="n">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="F17" t="n">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="G17" t="n">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-01-01 to 2024-11-24</t>
+          <t>2023-01-01 to 2024-12-29</t>
         </is>
       </c>
     </row>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>292</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>162</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>164</t>
         </is>
       </c>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>15203 units</t>
+          <t>16218 units</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2355</t>
+          <t>2668</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1159</t>
+          <t>1359</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>744</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>201</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>148</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-02-16</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
+++ b/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D2" t="n">
         <v>181</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D3" t="n">
         <v>192</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" t="n">
         <v>194</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D6" t="n">
         <v>123</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D8" t="n">
         <v>121</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D9" t="n">
         <v>128</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D11" t="n">
         <v>124</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D13" t="n">
         <v>125</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D14" t="n">
         <v>123</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D17" t="n">
         <v>115</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2668</t>
+          <t>2661</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1359</t>
+          <t>1353</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>744</t>
+          <t>740</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>146</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
+++ b/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D2" t="n">
         <v>181</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D3" t="n">
         <v>192</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D6" t="n">
         <v>123</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D9" t="n">
         <v>128</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D10" t="n">
         <v>124</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D11" t="n">
         <v>124</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D12" t="n">
         <v>123</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D13" t="n">
         <v>125</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D15" t="n">
         <v>116</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D16" t="n">
         <v>115</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D17" t="n">
         <v>115</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2661</t>
+          <t>2663</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>740</t>
+          <t>741</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
+++ b/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,40 +430,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Week_Start_Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>MyForecast</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Amazon P70 Forecast</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Amazon P80 Forecast</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Product Title</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>is_holiday_week</t>
         </is>
@@ -472,315 +477,360 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W01</t>
+          <t>W1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>171</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>181</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>209</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>233</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>270</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W02</t>
+          <t>W2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>180</v>
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
       </c>
       <c r="D3" t="n">
+        <v>182</v>
+      </c>
+      <c r="E3" t="n">
         <v>192</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>228</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>264</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>318</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W03</t>
+          <t>W3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>188</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>194</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>232</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>270</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>328</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W04</t>
+          <t>W4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>201</v>
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
       </c>
       <c r="D5" t="n">
+        <v>203</v>
+      </c>
+      <c r="E5" t="n">
         <v>187</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>223</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>259</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>314</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W05</t>
+          <t>W5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>165</v>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
       </c>
       <c r="D6" t="n">
+        <v>167</v>
+      </c>
+      <c r="E6" t="n">
         <v>123</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>147</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>172</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>209</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W06</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>154</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>124</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>148</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>173</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>212</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W07</t>
+          <t>W7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>146</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>121</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>146</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>173</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>215</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W08</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>146</v>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
       </c>
       <c r="D9" t="n">
+        <v>148</v>
+      </c>
+      <c r="E9" t="n">
         <v>128</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>155</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>186</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>235</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W09</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>155</v>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
       </c>
       <c r="D10" t="n">
+        <v>156</v>
+      </c>
+      <c r="E10" t="n">
         <v>124</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>148</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>173</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>212</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -792,30 +842,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>164</v>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
       </c>
       <c r="D11" t="n">
+        <v>163</v>
+      </c>
+      <c r="E11" t="n">
         <v>124</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>150</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>179</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>224</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -827,30 +882,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>184</v>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
       </c>
       <c r="D12" t="n">
+        <v>185</v>
+      </c>
+      <c r="E12" t="n">
         <v>123</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>149</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>178</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>224</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -862,30 +922,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>180</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>125</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>152</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>183</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>231</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -897,30 +962,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>172</v>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
       </c>
       <c r="D14" t="n">
+        <v>170</v>
+      </c>
+      <c r="E14" t="n">
         <v>123</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>149</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>177</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>222</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -932,30 +1002,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>156</v>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
       </c>
       <c r="D15" t="n">
+        <v>158</v>
+      </c>
+      <c r="E15" t="n">
         <v>116</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>140</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>169</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>213</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -967,30 +1042,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>146</v>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
       </c>
       <c r="D16" t="n">
+        <v>147</v>
+      </c>
+      <c r="E16" t="n">
         <v>115</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>140</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>168</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>214</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1002,30 +1082,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>152</v>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
       </c>
       <c r="D17" t="n">
+        <v>151</v>
+      </c>
+      <c r="E17" t="n">
         <v>115</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>139</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>167</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>210</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1152,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2663</t>
+          <t>2668</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1353</t>
+          <t>1358</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>743</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>203</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
+++ b/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E2" t="n">
         <v>181</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E3" t="n">
         <v>192</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E5" t="n">
         <v>187</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E6" t="n">
         <v>123</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E13" t="n">
         <v>125</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E14" t="n">
         <v>123</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E15" t="n">
         <v>116</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E17" t="n">
         <v>115</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2668</t>
+          <t>2667</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1358</t>
+          <t>1355</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>743</t>
+          <t>742</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>202</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
+++ b/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E2" t="n">
         <v>181</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E6" t="n">
         <v>123</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E7" t="n">
         <v>124</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E10" t="n">
         <v>124</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E11" t="n">
         <v>124</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E12" t="n">
         <v>123</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E13" t="n">
         <v>125</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2667</t>
+          <t>2665</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1355</t>
+          <t>1356</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>742</t>
+          <t>743</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
+++ b/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E2" t="n">
         <v>181</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E3" t="n">
         <v>192</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E9" t="n">
         <v>128</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E11" t="n">
         <v>124</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E13" t="n">
         <v>125</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E15" t="n">
         <v>116</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E16" t="n">
         <v>115</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2665</t>
+          <t>2666</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1356</t>
+          <t>1355</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
+++ b/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E2" t="n">
         <v>181</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="E3" t="n">
         <v>192</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="E4" t="n">
         <v>194</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="E5" t="n">
         <v>187</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="E7" t="n">
         <v>124</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="E8" t="n">
         <v>121</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="E9" t="n">
         <v>128</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="E10" t="n">
         <v>124</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="E11" t="n">
         <v>124</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>184</v>
+        <v>134</v>
       </c>
       <c r="E12" t="n">
         <v>123</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="E13" t="n">
         <v>125</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E14" t="n">
         <v>123</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E16" t="n">
         <v>115</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="E17" t="n">
         <v>115</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-01-01 to 2024-12-29</t>
+          <t>2023-01-01 to 2025-01-05</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>163</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16218 units</t>
+          <t>16315 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2666</t>
+          <t>2585</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1355</t>
+          <t>1376</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>743</t>
+          <t>661</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>197</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-03-02</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>134</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
+++ b/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="E2" t="n">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="F2" t="n">
-        <v>209</v>
+        <v>146</v>
       </c>
       <c r="G2" t="n">
-        <v>233</v>
+        <v>165</v>
       </c>
       <c r="H2" t="n">
-        <v>270</v>
+        <v>193</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="E3" t="n">
-        <v>192</v>
+        <v>142</v>
       </c>
       <c r="F3" t="n">
-        <v>228</v>
+        <v>168</v>
       </c>
       <c r="G3" t="n">
-        <v>264</v>
+        <v>194</v>
       </c>
       <c r="H3" t="n">
-        <v>318</v>
+        <v>234</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,19 +571,19 @@
         </is>
       </c>
       <c r="D4" t="n">
+        <v>118</v>
+      </c>
+      <c r="E4" t="n">
+        <v>104</v>
+      </c>
+      <c r="F4" t="n">
+        <v>123</v>
+      </c>
+      <c r="G4" t="n">
+        <v>140</v>
+      </c>
+      <c r="H4" t="n">
         <v>166</v>
-      </c>
-      <c r="E4" t="n">
-        <v>194</v>
-      </c>
-      <c r="F4" t="n">
-        <v>232</v>
-      </c>
-      <c r="G4" t="n">
-        <v>270</v>
-      </c>
-      <c r="H4" t="n">
-        <v>328</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="E5" t="n">
-        <v>187</v>
+        <v>103</v>
       </c>
       <c r="F5" t="n">
-        <v>223</v>
+        <v>122</v>
       </c>
       <c r="G5" t="n">
-        <v>259</v>
+        <v>140</v>
       </c>
       <c r="H5" t="n">
-        <v>314</v>
+        <v>168</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="E6" t="n">
+        <v>103</v>
+      </c>
+      <c r="F6" t="n">
         <v>123</v>
       </c>
-      <c r="F6" t="n">
-        <v>147</v>
-      </c>
       <c r="G6" t="n">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="H6" t="n">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="D7" t="n">
+        <v>115</v>
+      </c>
+      <c r="E7" t="n">
+        <v>102</v>
+      </c>
+      <c r="F7" t="n">
+        <v>122</v>
+      </c>
+      <c r="G7" t="n">
+        <v>141</v>
+      </c>
+      <c r="H7" t="n">
         <v>171</v>
-      </c>
-      <c r="E7" t="n">
-        <v>124</v>
-      </c>
-      <c r="F7" t="n">
-        <v>148</v>
-      </c>
-      <c r="G7" t="n">
-        <v>173</v>
-      </c>
-      <c r="H7" t="n">
-        <v>212</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="E8" t="n">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="F8" t="n">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="G8" t="n">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="H8" t="n">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>197</v>
+        <v>127</v>
       </c>
       <c r="E9" t="n">
+        <v>106</v>
+      </c>
+      <c r="F9" t="n">
         <v>128</v>
       </c>
-      <c r="F9" t="n">
-        <v>155</v>
-      </c>
       <c r="G9" t="n">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="H9" t="n">
-        <v>235</v>
+        <v>191</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E10" t="n">
+        <v>103</v>
+      </c>
+      <c r="F10" t="n">
         <v>124</v>
       </c>
-      <c r="F10" t="n">
-        <v>148</v>
-      </c>
       <c r="G10" t="n">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="H10" t="n">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E11" t="n">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="F11" t="n">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="G11" t="n">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="H11" t="n">
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E12" t="n">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="F12" t="n">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="G12" t="n">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="H12" t="n">
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E13" t="n">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="F13" t="n">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="G13" t="n">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="H13" t="n">
-        <v>231</v>
+        <v>185</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="E14" t="n">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="F14" t="n">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="G14" t="n">
+        <v>143</v>
+      </c>
+      <c r="H14" t="n">
         <v>177</v>
-      </c>
-      <c r="H14" t="n">
-        <v>222</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="E15" t="n">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="F15" t="n">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="G15" t="n">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="H15" t="n">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="E16" t="n">
+        <v>95</v>
+      </c>
+      <c r="F16" t="n">
         <v>115</v>
       </c>
-      <c r="F16" t="n">
-        <v>140</v>
-      </c>
       <c r="G16" t="n">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="H16" t="n">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>175</v>
+        <v>99</v>
       </c>
       <c r="E17" t="n">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="F17" t="n">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="G17" t="n">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="H17" t="n">
-        <v>210</v>
+        <v>166</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-01-01 to 2025-01-05</t>
+          <t>2023-01-01 to 2025-01-12</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>298</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>161</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16315 units</t>
+          <t>16419 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2585</t>
+          <t>1965</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1376</t>
+          <t>984</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>508</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>139</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>99</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-05-04</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
+++ b/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="E17" t="n">
         <v>92</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>1988</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>112</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-02-09</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
+++ b/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="E2" t="n">
         <v>125</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E3" t="n">
         <v>142</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E4" t="n">
         <v>104</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E5" t="n">
         <v>103</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E6" t="n">
         <v>103</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E7" t="n">
         <v>102</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="E8" t="n">
         <v>102</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="E9" t="n">
         <v>106</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="E10" t="n">
         <v>103</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="E11" t="n">
         <v>101</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="E12" t="n">
         <v>102</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="E13" t="n">
         <v>103</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E14" t="n">
         <v>100</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="E15" t="n">
         <v>95</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="E16" t="n">
         <v>95</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="E17" t="n">
         <v>92</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>2272</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>984</t>
+          <t>1086</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>557</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>160</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-03-23</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>118</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
+++ b/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E2" t="n">
         <v>125</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="E3" t="n">
         <v>142</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E4" t="n">
         <v>104</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="E5" t="n">
         <v>103</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="E6" t="n">
         <v>103</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E7" t="n">
         <v>102</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E8" t="n">
         <v>102</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E9" t="n">
         <v>106</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="E10" t="n">
         <v>103</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="E11" t="n">
         <v>101</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="E12" t="n">
         <v>102</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E13" t="n">
         <v>103</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E14" t="n">
         <v>100</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E15" t="n">
         <v>95</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="E16" t="n">
         <v>95</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="E17" t="n">
         <v>92</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-01-01 to 2025-01-12</t>
+          <t>2023-01-01 to 2025-01-19</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>301</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>159</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16419 units</t>
+          <t>16427 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2272</t>
+          <t>2181</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1086</t>
+          <t>1153</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>616</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>185</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>120</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-05-11</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
+++ b/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>160</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>73</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16427 units</t>
+          <t>16500 units</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
+++ b/Sufficient data/forecast_summary_B0BF7FT26Z.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="E2" t="n">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="F2" t="n">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="G2" t="n">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="H2" t="n">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="E3" t="n">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>168</v>
+        <v>94</v>
       </c>
       <c r="G3" t="n">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="H3" t="n">
-        <v>234</v>
+        <v>126</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,19 +571,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="E4" t="n">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="F4" t="n">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="H4" t="n">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="E5" t="n">
+        <v>87</v>
+      </c>
+      <c r="F5" t="n">
         <v>103</v>
       </c>
-      <c r="F5" t="n">
-        <v>122</v>
-      </c>
       <c r="G5" t="n">
+        <v>117</v>
+      </c>
+      <c r="H5" t="n">
         <v>140</v>
-      </c>
-      <c r="H5" t="n">
-        <v>168</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="E6" t="n">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F6" t="n">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="G6" t="n">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="H6" t="n">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="E7" t="n">
+        <v>86</v>
+      </c>
+      <c r="F7" t="n">
         <v>102</v>
       </c>
-      <c r="F7" t="n">
-        <v>122</v>
-      </c>
       <c r="G7" t="n">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="H7" t="n">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="E8" t="n">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="F8" t="n">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="G8" t="n">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="H8" t="n">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="E9" t="n">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F9" t="n">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="G9" t="n">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="H9" t="n">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="E10" t="n">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F10" t="n">
+        <v>107</v>
+      </c>
+      <c r="G10" t="n">
         <v>124</v>
       </c>
-      <c r="G10" t="n">
-        <v>144</v>
-      </c>
       <c r="H10" t="n">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E11" t="n">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="F11" t="n">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="G11" t="n">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="H11" t="n">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="E12" t="n">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="F12" t="n">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="G12" t="n">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="H12" t="n">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E13" t="n">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F13" t="n">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="G13" t="n">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H13" t="n">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="E14" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F14" t="n">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="G14" t="n">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="H14" t="n">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="E15" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F15" t="n">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="G15" t="n">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="H15" t="n">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="E16" t="n">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F16" t="n">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="G16" t="n">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="H16" t="n">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="E17" t="n">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F17" t="n">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="G17" t="n">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="H17" t="n">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-01-01 to 2025-01-19</t>
+          <t>2023-01-01 to 2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>302</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>162</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16500 units</t>
+          <t>16592 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2181</t>
+          <t>1792</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>912</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>451</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>123</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>101</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-05-18</t>
         </is>
       </c>
     </row>
